--- a/individual_case_outputs/avey/364.xlsx
+++ b/individual_case_outputs/avey/364.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>hashimoto thyroiditis</t>
+          <t>hypothyroidism</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>hashimoto thyroiditis</t>
+          <t>hypothyroidism</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>hashimoto thyroiditis</t>
+          <t>hypothyroidism</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>hashimoto thyroiditis</t>
+          <t>hypothyroidism</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -695,7 +695,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>hashimoto thyroiditis</t>
+          <t>hypothyroidism</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -711,7 +711,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>hypopituitarism</t>
+          <t>adrenal insufficiency</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -722,7 +722,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>hashimoto thyroiditis</t>
+          <t>underlying autoimmune diseases</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -767,7 +767,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>hypopituitarism</t>
+          <t>low blood suger</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
